--- a/학습자료/단답형/객관식_영어_단어_Day03.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day03.xlsx
@@ -449,59 +449,59 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>extinction
+1. 우울, 불경기
+2. 요청하다, 요구하다
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>extermination
+1. 요청하다, 요구하다
+2. 우울, 불경기
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>annihilation
+1. 해결책, 곤경
+2. 절멸, 전멸, 소멸
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>eradication
 1. 복잡
 2. 절멸, 전멸, 소멸
 3. 떨어지다, 습격하다</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>extermination
-1. 요청하다, 요구하다
-2. 절멸, 전멸, 소멸
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>annihilation
-1. 상, 소중한 것
-2. 절멸, 전멸, 소멸
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>eradication
-1. 절멸, 전멸, 소멸
-2. 해결책, 곤경
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -509,9 +509,9 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>disappearance
-1. 우울, 불경기
+1. 해결책, 곤경
 2. 절멸, 전멸, 소멸
-3. 조심</t>
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>depression
-1. 절멸, 전멸, 소멸
-2. 요청하다, 요구하다
-3. 우울, 불경기</t>
+1. 우울, 불경기
+2. 복잡
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 우울, 불경기</t>
+          <t>1, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -539,9 +539,9 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>melancholy
-1. 효율, 효능
+1. 손해, 손상
 2. 우울, 불경기
-3. 손해, 손상</t>
+3. 떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,9 +554,9 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>dejection
-1. 효율, 효능
+1. 해결책, 곤경
 2. 우울, 불경기
-3. 조심</t>
+3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,44 +569,44 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>recession
-1. 우울, 불경기
-2. 요청하다, 요구하다
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>slump
-1. 복잡
-2. 떨어지다, 습격하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>stagnation
 1. 요청하다, 요구하다
 2. 우울, 불경기
 3. 떨어지다, 습격하다</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>slump
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>stagnation
+1. 우울, 불경기
+2. 상, 소중한 것
+3. 복잡</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 우울, 불경기</t>
+          <t>1, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>downturn
-1. 요청하다, 요구하다
+1. 복잡
 2. 절멸, 전멸, 소멸
 3. 우울, 불경기</t>
         </is>
@@ -629,89 +629,89 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>efficiency
+1. 효율, 효능
+2. 손해, 손상
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>efficacy
+1. 효율, 효능
+2. 절멸, 전멸, 소멸
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>potency
 1. 절멸, 전멸, 소멸
 2. 효율, 효능
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>2, 효율, 효능</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>efficacy
-1. 복잡
-2. 손해, 손상
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>potency
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>caution
+1. 우울, 불경기
+2. 복잡
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wariness
+1. 우울, 불경기
+2. 효율, 효능
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>heed
 1. 해결책, 곤경
 2. 손해, 손상
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>caution
-1. 절멸, 전멸, 소멸
-2. 조심
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>wariness
-1. 효율, 효능
-2. 상, 소중한 것
 3. 조심</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>heed
-1. 상, 소중한 것
-2. 조심
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 조심</t>
         </is>
       </c>
     </row>
@@ -720,8 +720,8 @@
         <is>
           <t>vigilance
 1. 조심
-2. 절멸, 전멸, 소멸
-3. 해결책, 곤경</t>
+2. 떨어지다, 습격하다
+3. 손해, 손상</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -735,8 +735,8 @@
         <is>
           <t>prudence
 1. 조심
-2. 효율, 효능
-3. 손해, 손상</t>
+2. 우울, 불경기
+3. 복잡</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>fix
-1. 해결책, 곤경
-2. 우울, 불경기
-3. 효율, 효능</t>
+1. 조심
+2. 해결책, 곤경
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 해결책, 곤경</t>
+          <t>2, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>solution
-1. 해결책, 곤경
-2. 떨어지다, 습격하다
-3. 조심</t>
+1. 손해, 손상
+2. 해결책, 곤경
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 해결책, 곤경</t>
+          <t>2, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
           <t>remedy
 1. 해결책, 곤경
 2. 우울, 불경기
-3. 조심</t>
+3. 떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>antidote
-1. 떨어지다, 습격하다
-2. 효율, 효능
-3. 해결책, 곤경</t>
+1. 해결책, 곤경
+2. 우울, 불경기
+3. 조심</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>answer
-1. 효율, 효능
-2. 요청하다, 요구하다
-3. 해결책, 곤경</t>
+1. 해결책, 곤경
+2. 효율, 효능
+3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -824,149 +824,149 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>predicament
-1. 우울, 불경기
-2. 복잡
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>difficulty
-1. 상, 소중한 것
-2. 해결책, 곤경
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>plight
-1. 해결책, 곤경
-2. 상, 소중한 것
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>quandary
-1. 해결책, 곤경
-2. 조심
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>damage
-1. 떨어지다, 습격하다
-2. 복잡
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>harm
-1. 손해, 손상
-2. 해결책, 곤경
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>detriment
-1. 손해, 손상
-2. 우울, 불경기
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>disfigurement
-1. 조심
-2. 손해, 손상
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>mischief
-1. 손해, 손상
-2. 떨어지다, 습격하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>prize
 1. 상, 소중한 것
 2. 복잡
 3. 해결책, 곤경</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>difficulty
+1. 해결책, 곤경
+2. 복잡
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>plight
+1. 절멸, 전멸, 소멸
+2. 해결책, 곤경
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>quandary
+1. 조심
+2. 복잡
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>damage
+1. 손해, 손상
+2. 요청하다, 요구하다
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>harm
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>detriment
+1. 절멸, 전멸, 소멸
+2. 손해, 손상
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>disfigurement
+1. 손해, 손상
+2. 조심
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mischief
+1. 손해, 손상
+2. 조심
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>prize
+1. 복잡
+2. 효율, 효능
+3. 상, 소중한 것</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 상, 소중한 것</t>
+          <t>3, 상, 소중한 것</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>award
-1. 상, 소중한 것
-2. 해결책, 곤경
-3. 손해, 손상</t>
+1. 복잡
+2. 우울, 불경기
+3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1, 상, 소중한 것</t>
+          <t>3, 상, 소중한 것</t>
         </is>
       </c>
     </row>
@@ -990,8 +990,8 @@
         <is>
           <t>reward
 1. 상, 소중한 것
-2. 우울, 불경기
-3. 조심</t>
+2. 효율, 효능
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>treasure
-1. 해결책, 곤경
-2. 상, 소중한 것
-3. 우울, 불경기</t>
+1. 떨어지다, 습격하다
+2. 해결책, 곤경
+3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2, 상, 소중한 것</t>
+          <t>3, 상, 소중한 것</t>
         </is>
       </c>
     </row>
@@ -1034,54 +1034,54 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>complication
+1. 해결책, 곤경
+2. 효율, 효능
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>complexity
+1. 복잡
+2. 우울, 불경기
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>intricacy
+1. 요청하다, 요구하다
+2. 복잡
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>involution
 1. 복잡
 2. 상, 소중한 것
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>complexity
-1. 절멸, 전멸, 소멸
-2. 복잡
 3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>intricacy
-1. 해결책, 곤경
-2. 조심
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>involution
-1. 복잡
-2. 절멸, 전멸, 소멸
-3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,29 +1094,29 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>fall on
-1. 해결책, 곤경
+1. 상, 소중한 것
+2. 떨어지다, 습격하다
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>fall from
+1. 우울, 불경기
 2. 떨어지다, 습격하다
 3. 손해, 손상</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>2, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>fall from
-1. 절멸, 전멸, 소멸
-2. 상, 소중한 것
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>come off
-1. 절멸, 전멸, 소멸
-2. 상, 소중한 것
-3. 떨어지다, 습격하다</t>
+1. 떨어지다, 습격하다
+2. 복잡
+3. 조심</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3, 떨어지다, 습격하다</t>
+          <t>1, 떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
           <t>pitch
 1. 복잡
 2. 떨어지다, 습격하다
-3. 효율, 효능</t>
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1155,8 +1155,8 @@
         <is>
           <t>chop upon
 1. 떨어지다, 습격하다
-2. 손해, 손상
-3. 해결책, 곤경</t>
+2. 상, 소중한 것
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1169,9 +1169,9 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>attack
-1. 효율, 효능
+1. 손해, 손상
 2. 떨어지다, 습격하다
-3. 절멸, 전멸, 소멸</t>
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1185,8 +1185,8 @@
         <is>
           <t>assault
 1. 떨어지다, 습격하다
-2. 절멸, 전멸, 소멸
-3. 복잡</t>
+2. 우울, 불경기
+3. 손해, 손상</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>assail
-1. 상, 소중한 것
-2. 떨어지다, 습격하다
-3. 복잡</t>
+1. 효율, 효능
+2. 복잡
+3. 떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 떨어지다, 습격하다</t>
+          <t>3, 떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1214,9 +1214,9 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>call for
-1. 우울, 불경기
+1. 떨어지다, 습격하다
 2. 요청하다, 요구하다
-3. 복잡</t>
+3. 조심</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1231,7 +1231,7 @@
           <t>call on
 1. 요청하다, 요구하다
 2. 효율, 효능
-3. 상, 소중한 것</t>
+3. 손해, 손상</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1246,7 +1246,7 @@
           <t>ask for
 1. 요청하다, 요구하다
 2. 절멸, 전멸, 소멸
-3. 조심</t>
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>put in for
-1. 떨어지다, 습격하다
-2. 요청하다, 요구하다
-3. 복잡</t>
+1. 절멸, 전멸, 소멸
+2. 조심
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2, 요청하다, 요구하다</t>
+          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1274,8 +1274,8 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>summon
-1. 효율, 효능
-2. 해결책, 곤경
+1. 복잡
+2. 우울, 불경기
 3. 요청하다, 요구하다</t>
         </is>
       </c>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>necessitate
-1. 효율, 효능
-2. 절멸, 전멸, 소멸
-3. 요청하다, 요구하다</t>
+1. 조심
+2. 요청하다, 요구하다
+3. 손해, 손상</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3, 요청하다, 요구하다</t>
+          <t>2, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1304,9 +1304,9 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>demand
-1. 절멸, 전멸, 소멸
+1. 효율, 효능
 2. 요청하다, 요구하다
-3. 조심</t>
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>stipulate
-1. 요청하다, 요구하다
-2. 절멸, 전멸, 소멸
-3. 복잡</t>
+1. 조심
+2. 요청하다, 요구하다
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>2, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>enjoin
-1. 요청하다, 요구하다
-2. 우울, 불경기
-3. 떨어지다, 습격하다</t>
+1. 해결책, 곤경
+2. 조심
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>require
-1. 절멸, 전멸, 소멸
+1. 요청하다, 요구하다
 2. 상, 소중한 것
-3. 요청하다, 요구하다</t>
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3, 요청하다, 요구하다</t>
+          <t>1, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
